--- a/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,142 +662,151 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8505200</v>
+        <v>7001800</v>
       </c>
       <c r="E8" s="3">
-        <v>7321300</v>
+        <v>8343200</v>
       </c>
       <c r="F8" s="3">
-        <v>7341200</v>
+        <v>7181800</v>
       </c>
       <c r="G8" s="3">
-        <v>6463200</v>
+        <v>7201300</v>
       </c>
       <c r="H8" s="3">
-        <v>7022600</v>
+        <v>6340100</v>
       </c>
       <c r="I8" s="3">
-        <v>6124900</v>
+        <v>6888800</v>
       </c>
       <c r="J8" s="3">
+        <v>6008300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6482200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6193500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4695400</v>
+        <v>3728400</v>
       </c>
       <c r="E9" s="3">
-        <v>4006200</v>
+        <v>4606000</v>
       </c>
       <c r="F9" s="3">
-        <v>3930500</v>
+        <v>3929900</v>
       </c>
       <c r="G9" s="3">
-        <v>3564400</v>
+        <v>3855600</v>
       </c>
       <c r="H9" s="3">
-        <v>3804300</v>
+        <v>3496500</v>
       </c>
       <c r="I9" s="3">
-        <v>3273400</v>
+        <v>3731900</v>
       </c>
       <c r="J9" s="3">
+        <v>3211100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3412700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3368400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3809800</v>
+        <v>3273400</v>
       </c>
       <c r="E10" s="3">
-        <v>3315100</v>
+        <v>3737200</v>
       </c>
       <c r="F10" s="3">
-        <v>3410700</v>
+        <v>3251900</v>
       </c>
       <c r="G10" s="3">
-        <v>2898800</v>
+        <v>3345700</v>
       </c>
       <c r="H10" s="3">
-        <v>3218200</v>
+        <v>2843600</v>
       </c>
       <c r="I10" s="3">
-        <v>2851500</v>
+        <v>3156900</v>
       </c>
       <c r="J10" s="3">
+        <v>2797200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3069500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +818,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>629600</v>
+        <v>551600</v>
       </c>
       <c r="E12" s="3">
-        <v>551400</v>
+        <v>617600</v>
       </c>
       <c r="F12" s="3">
-        <v>549200</v>
+        <v>540900</v>
       </c>
       <c r="G12" s="3">
-        <v>524300</v>
+        <v>538700</v>
       </c>
       <c r="H12" s="3">
-        <v>561000</v>
+        <v>514300</v>
       </c>
       <c r="I12" s="3">
-        <v>534300</v>
+        <v>550300</v>
       </c>
       <c r="J12" s="3">
+        <v>524200</v>
+      </c>
+      <c r="K12" s="3">
         <v>521500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,8 +880,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -896,8 +912,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,8 +944,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +957,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7789800</v>
+        <v>6392700</v>
       </c>
       <c r="E17" s="3">
-        <v>6722700</v>
+        <v>7641400</v>
       </c>
       <c r="F17" s="3">
-        <v>6617400</v>
+        <v>6594600</v>
       </c>
       <c r="G17" s="3">
-        <v>5903600</v>
+        <v>6491300</v>
       </c>
       <c r="H17" s="3">
-        <v>6468700</v>
+        <v>5791100</v>
       </c>
       <c r="I17" s="3">
-        <v>5693300</v>
+        <v>6345500</v>
       </c>
       <c r="J17" s="3">
+        <v>5584800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5914300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5674800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>715500</v>
+        <v>609100</v>
       </c>
       <c r="E18" s="3">
-        <v>598600</v>
+        <v>701900</v>
       </c>
       <c r="F18" s="3">
-        <v>723800</v>
+        <v>587200</v>
       </c>
       <c r="G18" s="3">
-        <v>559600</v>
+        <v>710000</v>
       </c>
       <c r="H18" s="3">
-        <v>553900</v>
+        <v>549000</v>
       </c>
       <c r="I18" s="3">
-        <v>431700</v>
+        <v>543300</v>
       </c>
       <c r="J18" s="3">
+        <v>423400</v>
+      </c>
+      <c r="K18" s="3">
         <v>567900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>518600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1035,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>172300</v>
+        <v>24400</v>
       </c>
       <c r="E20" s="3">
-        <v>-15900</v>
+        <v>169000</v>
       </c>
       <c r="F20" s="3">
-        <v>-95400</v>
+        <v>-15600</v>
       </c>
       <c r="G20" s="3">
-        <v>-60300</v>
+        <v>-93600</v>
       </c>
       <c r="H20" s="3">
-        <v>-26400</v>
+        <v>-59200</v>
       </c>
       <c r="I20" s="3">
-        <v>152100</v>
+        <v>-25900</v>
       </c>
       <c r="J20" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K20" s="3">
         <v>63800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1330700</v>
+        <v>1011800</v>
       </c>
       <c r="E21" s="3">
-        <v>987900</v>
+        <v>1305300</v>
       </c>
       <c r="F21" s="3">
-        <v>1045500</v>
+        <v>969100</v>
       </c>
       <c r="G21" s="3">
-        <v>898800</v>
+        <v>1025600</v>
       </c>
       <c r="H21" s="3">
-        <v>967500</v>
+        <v>881600</v>
       </c>
       <c r="I21" s="3">
-        <v>983600</v>
+        <v>949100</v>
       </c>
       <c r="J21" s="3">
+        <v>964800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1044000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>860700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
-        <v>2200</v>
-      </c>
       <c r="G22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>885500</v>
+        <v>631100</v>
       </c>
       <c r="E23" s="3">
-        <v>581200</v>
+        <v>868600</v>
       </c>
       <c r="F23" s="3">
-        <v>626200</v>
+        <v>570100</v>
       </c>
       <c r="G23" s="3">
-        <v>497600</v>
+        <v>614300</v>
       </c>
       <c r="H23" s="3">
-        <v>526000</v>
+        <v>488100</v>
       </c>
       <c r="I23" s="3">
-        <v>583000</v>
+        <v>515900</v>
       </c>
       <c r="J23" s="3">
+        <v>571900</v>
+      </c>
+      <c r="K23" s="3">
         <v>630400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>223400</v>
+        <v>186000</v>
       </c>
       <c r="E24" s="3">
-        <v>160400</v>
+        <v>219100</v>
       </c>
       <c r="F24" s="3">
-        <v>163400</v>
+        <v>157400</v>
       </c>
       <c r="G24" s="3">
-        <v>131600</v>
+        <v>160300</v>
       </c>
       <c r="H24" s="3">
-        <v>59800</v>
+        <v>129100</v>
       </c>
       <c r="I24" s="3">
-        <v>183800</v>
+        <v>58600</v>
       </c>
       <c r="J24" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K24" s="3">
         <v>156200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>128500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1225,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>662100</v>
+        <v>445100</v>
       </c>
       <c r="E26" s="3">
-        <v>420800</v>
+        <v>649500</v>
       </c>
       <c r="F26" s="3">
-        <v>462800</v>
+        <v>412800</v>
       </c>
       <c r="G26" s="3">
-        <v>366000</v>
+        <v>454000</v>
       </c>
       <c r="H26" s="3">
-        <v>466200</v>
+        <v>359000</v>
       </c>
       <c r="I26" s="3">
-        <v>399300</v>
+        <v>457300</v>
       </c>
       <c r="J26" s="3">
+        <v>391700</v>
+      </c>
+      <c r="K26" s="3">
         <v>474200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>623600</v>
+        <v>406700</v>
       </c>
       <c r="E27" s="3">
-        <v>397800</v>
+        <v>611700</v>
       </c>
       <c r="F27" s="3">
-        <v>433800</v>
+        <v>390200</v>
       </c>
       <c r="G27" s="3">
-        <v>337900</v>
+        <v>425600</v>
       </c>
       <c r="H27" s="3">
-        <v>439500</v>
+        <v>331500</v>
       </c>
       <c r="I27" s="3">
-        <v>362500</v>
+        <v>431100</v>
       </c>
       <c r="J27" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K27" s="3">
         <v>449400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1321,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1353,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1385,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1417,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-172300</v>
+        <v>-24400</v>
       </c>
       <c r="E32" s="3">
-        <v>15900</v>
+        <v>-169000</v>
       </c>
       <c r="F32" s="3">
-        <v>95400</v>
+        <v>15600</v>
       </c>
       <c r="G32" s="3">
-        <v>60300</v>
+        <v>93600</v>
       </c>
       <c r="H32" s="3">
-        <v>26400</v>
+        <v>59200</v>
       </c>
       <c r="I32" s="3">
-        <v>-152100</v>
+        <v>25900</v>
       </c>
       <c r="J32" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>623600</v>
+        <v>406700</v>
       </c>
       <c r="E33" s="3">
-        <v>397800</v>
+        <v>611700</v>
       </c>
       <c r="F33" s="3">
-        <v>433800</v>
+        <v>390200</v>
       </c>
       <c r="G33" s="3">
-        <v>337900</v>
+        <v>425600</v>
       </c>
       <c r="H33" s="3">
-        <v>439500</v>
+        <v>331500</v>
       </c>
       <c r="I33" s="3">
-        <v>362500</v>
+        <v>431100</v>
       </c>
       <c r="J33" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K33" s="3">
         <v>449400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1513,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>623600</v>
+        <v>406700</v>
       </c>
       <c r="E35" s="3">
-        <v>397800</v>
+        <v>611700</v>
       </c>
       <c r="F35" s="3">
-        <v>433800</v>
+        <v>390200</v>
       </c>
       <c r="G35" s="3">
-        <v>337900</v>
+        <v>425600</v>
       </c>
       <c r="H35" s="3">
-        <v>439500</v>
+        <v>331500</v>
       </c>
       <c r="I35" s="3">
-        <v>362500</v>
+        <v>431100</v>
       </c>
       <c r="J35" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K35" s="3">
         <v>449400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1598,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,57 +1612,61 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2661400</v>
+        <v>3444200</v>
       </c>
       <c r="E41" s="3">
-        <v>3419900</v>
+        <v>2610700</v>
       </c>
       <c r="F41" s="3">
-        <v>3339300</v>
+        <v>3354800</v>
       </c>
       <c r="G41" s="3">
-        <v>3177900</v>
+        <v>3275700</v>
       </c>
       <c r="H41" s="3">
-        <v>2950300</v>
+        <v>3117300</v>
       </c>
       <c r="I41" s="3">
-        <v>3544500</v>
+        <v>2894100</v>
       </c>
       <c r="J41" s="3">
+        <v>3477000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3848200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3553000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>80200</v>
+        <v>56800</v>
       </c>
       <c r="E42" s="3">
-        <v>89800</v>
+        <v>78600</v>
       </c>
       <c r="F42" s="3">
-        <v>62800</v>
+        <v>88100</v>
       </c>
       <c r="G42" s="3">
-        <v>29400</v>
+        <v>61600</v>
       </c>
       <c r="H42" s="3">
-        <v>24800</v>
+        <v>28800</v>
       </c>
       <c r="I42" s="3">
-        <v>700</v>
+        <v>24300</v>
       </c>
       <c r="J42" s="3">
         <v>700</v>
@@ -1588,211 +1674,235 @@
       <c r="K42" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4568500</v>
+        <v>5185200</v>
       </c>
       <c r="E43" s="3">
-        <v>4093100</v>
+        <v>5469500</v>
       </c>
       <c r="F43" s="3">
-        <v>4050900</v>
+        <v>4015100</v>
       </c>
       <c r="G43" s="3">
-        <v>3872000</v>
+        <v>3973800</v>
       </c>
       <c r="H43" s="3">
-        <v>3737600</v>
+        <v>3798200</v>
       </c>
       <c r="I43" s="3">
-        <v>3339400</v>
+        <v>3666400</v>
       </c>
       <c r="J43" s="3">
+        <v>3275800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3533700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3740600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5941100</v>
+        <v>6192200</v>
       </c>
       <c r="E44" s="3">
-        <v>6496600</v>
+        <v>5827900</v>
       </c>
       <c r="F44" s="3">
-        <v>5866300</v>
+        <v>6372900</v>
       </c>
       <c r="G44" s="3">
-        <v>5389100</v>
+        <v>5754600</v>
       </c>
       <c r="H44" s="3">
-        <v>4781700</v>
+        <v>5286500</v>
       </c>
       <c r="I44" s="3">
-        <v>4676800</v>
+        <v>4690600</v>
       </c>
       <c r="J44" s="3">
+        <v>4587800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4330100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4379900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2594800</v>
+        <v>1499700</v>
       </c>
       <c r="E45" s="3">
-        <v>2765800</v>
+        <v>1557300</v>
       </c>
       <c r="F45" s="3">
-        <v>2657900</v>
+        <v>2713100</v>
       </c>
       <c r="G45" s="3">
-        <v>2361700</v>
+        <v>2607300</v>
       </c>
       <c r="H45" s="3">
-        <v>2311500</v>
+        <v>2316700</v>
       </c>
       <c r="I45" s="3">
-        <v>2353800</v>
+        <v>2267500</v>
       </c>
       <c r="J45" s="3">
+        <v>2308900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2275900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2209100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>15846000</v>
+        <v>16378100</v>
       </c>
       <c r="E46" s="3">
-        <v>16865200</v>
+        <v>15544100</v>
       </c>
       <c r="F46" s="3">
-        <v>15977200</v>
+        <v>16544000</v>
       </c>
       <c r="G46" s="3">
-        <v>14830000</v>
+        <v>15672800</v>
       </c>
       <c r="H46" s="3">
-        <v>13805800</v>
+        <v>14547500</v>
       </c>
       <c r="I46" s="3">
-        <v>13915200</v>
+        <v>13542900</v>
       </c>
       <c r="J46" s="3">
+        <v>13650100</v>
+      </c>
+      <c r="K46" s="3">
         <v>13988700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13883200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>547300</v>
+        <v>2659900</v>
       </c>
       <c r="E47" s="3">
-        <v>519100</v>
+        <v>2550800</v>
       </c>
       <c r="F47" s="3">
-        <v>520300</v>
+        <v>509200</v>
       </c>
       <c r="G47" s="3">
-        <v>533100</v>
+        <v>510400</v>
       </c>
       <c r="H47" s="3">
-        <v>551100</v>
+        <v>522900</v>
       </c>
       <c r="I47" s="3">
-        <v>566900</v>
+        <v>540600</v>
       </c>
       <c r="J47" s="3">
+        <v>556100</v>
+      </c>
+      <c r="K47" s="3">
         <v>509400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>497200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>8473900</v>
+        <v>8446800</v>
       </c>
       <c r="E48" s="3">
-        <v>8574100</v>
+        <v>8312500</v>
       </c>
       <c r="F48" s="3">
-        <v>8560000</v>
+        <v>8410800</v>
       </c>
       <c r="G48" s="3">
-        <v>8478100</v>
+        <v>8397000</v>
       </c>
       <c r="H48" s="3">
-        <v>8358400</v>
+        <v>8316600</v>
       </c>
       <c r="I48" s="3">
-        <v>8324600</v>
+        <v>8199200</v>
       </c>
       <c r="J48" s="3">
+        <v>8166000</v>
+      </c>
+      <c r="K48" s="3">
         <v>8367100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8429500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9214100</v>
+        <v>9042400</v>
       </c>
       <c r="E49" s="3">
-        <v>9412800</v>
+        <v>9038600</v>
       </c>
       <c r="F49" s="3">
-        <v>9462400</v>
+        <v>9233500</v>
       </c>
       <c r="G49" s="3">
-        <v>9371300</v>
+        <v>9282100</v>
       </c>
       <c r="H49" s="3">
-        <v>9229000</v>
+        <v>9192800</v>
       </c>
       <c r="I49" s="3">
-        <v>9230000</v>
+        <v>9053200</v>
       </c>
       <c r="J49" s="3">
+        <v>9054200</v>
+      </c>
+      <c r="K49" s="3">
         <v>9078800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9087100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +1930,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +1962,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3370900</v>
+        <v>1388300</v>
       </c>
       <c r="E52" s="3">
-        <v>3591500</v>
+        <v>1292700</v>
       </c>
       <c r="F52" s="3">
-        <v>3363200</v>
+        <v>3523100</v>
       </c>
       <c r="G52" s="3">
-        <v>3132000</v>
+        <v>3299100</v>
       </c>
       <c r="H52" s="3">
-        <v>2974700</v>
+        <v>3072300</v>
       </c>
       <c r="I52" s="3">
-        <v>2892100</v>
+        <v>2918000</v>
       </c>
       <c r="J52" s="3">
+        <v>2837000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2948300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2026,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>37452100</v>
+        <v>37915500</v>
       </c>
       <c r="E54" s="3">
-        <v>38962800</v>
+        <v>36738800</v>
       </c>
       <c r="F54" s="3">
-        <v>37883000</v>
+        <v>38220600</v>
       </c>
       <c r="G54" s="3">
-        <v>36344400</v>
+        <v>37161400</v>
       </c>
       <c r="H54" s="3">
-        <v>34919000</v>
+        <v>35652200</v>
       </c>
       <c r="I54" s="3">
-        <v>34928800</v>
+        <v>34253900</v>
       </c>
       <c r="J54" s="3">
+        <v>34263500</v>
+      </c>
+      <c r="K54" s="3">
         <v>34892400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34797900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2074,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2088,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2616100</v>
+        <v>2628300</v>
       </c>
       <c r="E57" s="3">
-        <v>2888500</v>
+        <v>2566300</v>
       </c>
       <c r="F57" s="3">
-        <v>2690300</v>
+        <v>2833500</v>
       </c>
       <c r="G57" s="3">
-        <v>2582800</v>
+        <v>2639100</v>
       </c>
       <c r="H57" s="3">
-        <v>2488700</v>
+        <v>2533600</v>
       </c>
       <c r="I57" s="3">
-        <v>2409300</v>
+        <v>2441300</v>
       </c>
       <c r="J57" s="3">
+        <v>2363400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2294200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2332900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2178400</v>
+        <v>3149300</v>
       </c>
       <c r="E58" s="3">
-        <v>1784500</v>
+        <v>2136900</v>
       </c>
       <c r="F58" s="3">
-        <v>989600</v>
+        <v>1750500</v>
       </c>
       <c r="G58" s="3">
-        <v>1066500</v>
+        <v>970700</v>
       </c>
       <c r="H58" s="3">
-        <v>329900</v>
+        <v>1046200</v>
       </c>
       <c r="I58" s="3">
-        <v>2542100</v>
+        <v>323700</v>
       </c>
       <c r="J58" s="3">
+        <v>2493700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2540900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3014200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5240800</v>
+        <v>5097100</v>
       </c>
       <c r="E59" s="3">
-        <v>5171900</v>
+        <v>5141000</v>
       </c>
       <c r="F59" s="3">
-        <v>4984400</v>
+        <v>5073400</v>
       </c>
       <c r="G59" s="3">
-        <v>4721700</v>
+        <v>4889500</v>
       </c>
       <c r="H59" s="3">
-        <v>4978400</v>
+        <v>4631800</v>
       </c>
       <c r="I59" s="3">
-        <v>4933300</v>
+        <v>4883600</v>
       </c>
       <c r="J59" s="3">
+        <v>4839300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4883300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4769000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10035300</v>
+        <v>10874700</v>
       </c>
       <c r="E60" s="3">
-        <v>9845000</v>
+        <v>9844200</v>
       </c>
       <c r="F60" s="3">
-        <v>8664300</v>
+        <v>9657400</v>
       </c>
       <c r="G60" s="3">
-        <v>8371000</v>
+        <v>8499300</v>
       </c>
       <c r="H60" s="3">
-        <v>7797100</v>
+        <v>8211500</v>
       </c>
       <c r="I60" s="3">
-        <v>9884600</v>
+        <v>7648600</v>
       </c>
       <c r="J60" s="3">
+        <v>9696400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9718400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10116000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="E61" s="3">
-        <v>1325300</v>
+        <v>17400</v>
       </c>
       <c r="F61" s="3">
-        <v>1325500</v>
+        <v>1300100</v>
       </c>
       <c r="G61" s="3">
-        <v>1320400</v>
+        <v>1300300</v>
       </c>
       <c r="H61" s="3">
-        <v>1321200</v>
+        <v>1295300</v>
       </c>
       <c r="I61" s="3">
-        <v>43500</v>
+        <v>1296000</v>
       </c>
       <c r="J61" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K61" s="3">
         <v>41700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2783700</v>
+        <v>2649100</v>
       </c>
       <c r="E62" s="3">
-        <v>3138900</v>
+        <v>2730600</v>
       </c>
       <c r="F62" s="3">
-        <v>3169500</v>
+        <v>3079100</v>
       </c>
       <c r="G62" s="3">
-        <v>3146000</v>
+        <v>3109200</v>
       </c>
       <c r="H62" s="3">
-        <v>3027300</v>
+        <v>3086100</v>
       </c>
       <c r="I62" s="3">
-        <v>3250800</v>
+        <v>2969600</v>
       </c>
       <c r="J62" s="3">
+        <v>3188900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3366400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3458200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2310,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2342,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2374,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14570800</v>
+        <v>15257500</v>
       </c>
       <c r="E66" s="3">
-        <v>16011400</v>
+        <v>14293300</v>
       </c>
       <c r="F66" s="3">
-        <v>14853000</v>
+        <v>15706500</v>
       </c>
       <c r="G66" s="3">
-        <v>14500500</v>
+        <v>14570100</v>
       </c>
       <c r="H66" s="3">
-        <v>13796800</v>
+        <v>14224300</v>
       </c>
       <c r="I66" s="3">
-        <v>14789300</v>
+        <v>13534000</v>
       </c>
       <c r="J66" s="3">
+        <v>14507600</v>
+      </c>
+      <c r="K66" s="3">
         <v>14713500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15171700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2422,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2452,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2484,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2516,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2548,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>27409900</v>
+        <v>26855300</v>
       </c>
       <c r="E72" s="3">
-        <v>26786300</v>
+        <v>26887800</v>
       </c>
       <c r="F72" s="3">
-        <v>26842900</v>
+        <v>26276100</v>
       </c>
       <c r="G72" s="3">
-        <v>26409100</v>
+        <v>26331600</v>
       </c>
       <c r="H72" s="3">
-        <v>26504500</v>
+        <v>25906100</v>
       </c>
       <c r="I72" s="3">
-        <v>26054500</v>
+        <v>25999600</v>
       </c>
       <c r="J72" s="3">
+        <v>25558200</v>
+      </c>
+      <c r="K72" s="3">
         <v>26037900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25588500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2612,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2644,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2676,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>22881300</v>
+        <v>22658000</v>
       </c>
       <c r="E76" s="3">
-        <v>22951300</v>
+        <v>22445500</v>
       </c>
       <c r="F76" s="3">
-        <v>23029900</v>
+        <v>22514200</v>
       </c>
       <c r="G76" s="3">
-        <v>21844000</v>
+        <v>22591300</v>
       </c>
       <c r="H76" s="3">
-        <v>21122200</v>
+        <v>21427900</v>
       </c>
       <c r="I76" s="3">
-        <v>20139500</v>
+        <v>20719900</v>
       </c>
       <c r="J76" s="3">
+        <v>19755900</v>
+      </c>
+      <c r="K76" s="3">
         <v>20178900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19626200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2740,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>623600</v>
+        <v>406700</v>
       </c>
       <c r="E81" s="3">
-        <v>397800</v>
+        <v>611700</v>
       </c>
       <c r="F81" s="3">
-        <v>433800</v>
+        <v>390200</v>
       </c>
       <c r="G81" s="3">
-        <v>337900</v>
+        <v>425600</v>
       </c>
       <c r="H81" s="3">
-        <v>439500</v>
+        <v>331500</v>
       </c>
       <c r="I81" s="3">
-        <v>362500</v>
+        <v>431100</v>
       </c>
       <c r="J81" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K81" s="3">
         <v>449400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +2825,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>443000</v>
+        <v>378300</v>
       </c>
       <c r="E83" s="3">
-        <v>405200</v>
+        <v>434500</v>
       </c>
       <c r="F83" s="3">
-        <v>417100</v>
+        <v>397400</v>
       </c>
       <c r="G83" s="3">
-        <v>399500</v>
+        <v>409200</v>
       </c>
       <c r="H83" s="3">
-        <v>440100</v>
+        <v>391900</v>
       </c>
       <c r="I83" s="3">
-        <v>399800</v>
+        <v>431700</v>
       </c>
       <c r="J83" s="3">
+        <v>392200</v>
+      </c>
+      <c r="K83" s="3">
         <v>412300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +2887,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +2919,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +2951,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +2983,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3015,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>544800</v>
+        <v>530700</v>
       </c>
       <c r="E89" s="3">
-        <v>440300</v>
+        <v>534400</v>
       </c>
       <c r="F89" s="3">
-        <v>831700</v>
+        <v>431900</v>
       </c>
       <c r="G89" s="3">
-        <v>113400</v>
+        <v>815800</v>
       </c>
       <c r="H89" s="3">
-        <v>742800</v>
+        <v>111200</v>
       </c>
       <c r="I89" s="3">
-        <v>568600</v>
+        <v>728600</v>
       </c>
       <c r="J89" s="3">
+        <v>557800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1053700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>950000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3063,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-413600</v>
+        <v>-43314000</v>
       </c>
       <c r="E91" s="3">
-        <v>-327800</v>
+        <v>-56276000</v>
       </c>
       <c r="F91" s="3">
-        <v>-295300</v>
+        <v>-44602000</v>
       </c>
       <c r="G91" s="3">
-        <v>-348900</v>
+        <v>-40183000</v>
       </c>
       <c r="H91" s="3">
-        <v>-398800</v>
+        <v>-47466000</v>
       </c>
       <c r="I91" s="3">
-        <v>-302500</v>
+        <v>-54255000</v>
       </c>
       <c r="J91" s="3">
+        <v>-41155000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-299600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-302700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3125,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3157,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-356300</v>
+        <v>-274900</v>
       </c>
       <c r="E94" s="3">
-        <v>-359800</v>
+        <v>-349500</v>
       </c>
       <c r="F94" s="3">
-        <v>-355300</v>
+        <v>-353000</v>
       </c>
       <c r="G94" s="3">
-        <v>-257600</v>
+        <v>-348600</v>
       </c>
       <c r="H94" s="3">
-        <v>-433000</v>
+        <v>-252700</v>
       </c>
       <c r="I94" s="3">
-        <v>-499500</v>
+        <v>-424700</v>
       </c>
       <c r="J94" s="3">
+        <v>-490000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-302300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-288600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,37 +3205,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-439300</v>
       </c>
       <c r="E96" s="3">
-        <v>-454300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-445600</v>
       </c>
       <c r="G96" s="3">
-        <v>-422700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-414700</v>
       </c>
       <c r="I96" s="3">
-        <v>-345900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-339300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3267,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3299,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3331,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-861900</v>
+        <v>546000</v>
       </c>
       <c r="E100" s="3">
-        <v>-52000</v>
+        <v>-845500</v>
       </c>
       <c r="F100" s="3">
-        <v>-446400</v>
+        <v>-51000</v>
       </c>
       <c r="G100" s="3">
-        <v>281000</v>
+        <v>-437900</v>
       </c>
       <c r="H100" s="3">
-        <v>-936200</v>
+        <v>275600</v>
       </c>
       <c r="I100" s="3">
-        <v>-369500</v>
+        <v>-918400</v>
       </c>
       <c r="J100" s="3">
+        <v>-362500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-469900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-85200</v>
+        <v>31600</v>
       </c>
       <c r="E101" s="3">
-        <v>52200</v>
+        <v>-83500</v>
       </c>
       <c r="F101" s="3">
-        <v>131500</v>
+        <v>51200</v>
       </c>
       <c r="G101" s="3">
-        <v>90900</v>
+        <v>129000</v>
       </c>
       <c r="H101" s="3">
-        <v>32200</v>
+        <v>89100</v>
       </c>
       <c r="I101" s="3">
-        <v>-3400</v>
+        <v>31600</v>
       </c>
       <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>13700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-758500</v>
+        <v>833500</v>
       </c>
       <c r="E102" s="3">
-        <v>80700</v>
+        <v>-744100</v>
       </c>
       <c r="F102" s="3">
-        <v>161400</v>
+        <v>79100</v>
       </c>
       <c r="G102" s="3">
-        <v>227600</v>
+        <v>158300</v>
       </c>
       <c r="H102" s="3">
-        <v>-594200</v>
+        <v>223300</v>
       </c>
       <c r="I102" s="3">
-        <v>-303700</v>
+        <v>-582900</v>
       </c>
       <c r="J102" s="3">
+        <v>-298000</v>
+      </c>
+      <c r="K102" s="3">
         <v>295200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>556500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,151 +662,163 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7001800</v>
+        <v>7013500</v>
       </c>
       <c r="E8" s="3">
-        <v>8343200</v>
+        <v>6671600</v>
       </c>
       <c r="F8" s="3">
-        <v>7181800</v>
+        <v>7949800</v>
       </c>
       <c r="G8" s="3">
-        <v>7201300</v>
+        <v>6843100</v>
       </c>
       <c r="H8" s="3">
-        <v>6340100</v>
+        <v>6861700</v>
       </c>
       <c r="I8" s="3">
-        <v>6888800</v>
+        <v>6041100</v>
       </c>
       <c r="J8" s="3">
+        <v>6563900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6008300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6482200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6193500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3728400</v>
+        <v>3683100</v>
       </c>
       <c r="E9" s="3">
-        <v>4606000</v>
+        <v>3552600</v>
       </c>
       <c r="F9" s="3">
-        <v>3929900</v>
+        <v>4388800</v>
       </c>
       <c r="G9" s="3">
-        <v>3855600</v>
+        <v>3744500</v>
       </c>
       <c r="H9" s="3">
-        <v>3496500</v>
+        <v>3673800</v>
       </c>
       <c r="I9" s="3">
-        <v>3731900</v>
+        <v>3331700</v>
       </c>
       <c r="J9" s="3">
+        <v>3555900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3211100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3412700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3368400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3273400</v>
+        <v>3330400</v>
       </c>
       <c r="E10" s="3">
-        <v>3737200</v>
+        <v>3119000</v>
       </c>
       <c r="F10" s="3">
-        <v>3251900</v>
+        <v>3561000</v>
       </c>
       <c r="G10" s="3">
-        <v>3345700</v>
+        <v>3098600</v>
       </c>
       <c r="H10" s="3">
-        <v>2843600</v>
+        <v>3187900</v>
       </c>
       <c r="I10" s="3">
-        <v>3156900</v>
+        <v>2709500</v>
       </c>
       <c r="J10" s="3">
+        <v>3008000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2797200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3069500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,40 +831,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>551600</v>
+        <v>590900</v>
       </c>
       <c r="E12" s="3">
-        <v>617600</v>
+        <v>525500</v>
       </c>
       <c r="F12" s="3">
-        <v>540900</v>
+        <v>588500</v>
       </c>
       <c r="G12" s="3">
-        <v>538700</v>
+        <v>515400</v>
       </c>
       <c r="H12" s="3">
-        <v>514300</v>
+        <v>513300</v>
       </c>
       <c r="I12" s="3">
-        <v>550300</v>
+        <v>490100</v>
       </c>
       <c r="J12" s="3">
+        <v>524400</v>
+      </c>
+      <c r="K12" s="3">
         <v>524200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>521500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,8 +899,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -915,8 +934,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,8 +969,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -958,72 +983,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6392700</v>
+        <v>6379500</v>
       </c>
       <c r="E17" s="3">
-        <v>7641400</v>
+        <v>6091300</v>
       </c>
       <c r="F17" s="3">
-        <v>6594600</v>
+        <v>7281000</v>
       </c>
       <c r="G17" s="3">
-        <v>6491300</v>
+        <v>6283600</v>
       </c>
       <c r="H17" s="3">
-        <v>5791100</v>
+        <v>6185200</v>
       </c>
       <c r="I17" s="3">
-        <v>6345500</v>
+        <v>5518100</v>
       </c>
       <c r="J17" s="3">
+        <v>6046200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5584800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5914300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5674800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>609100</v>
+        <v>633900</v>
       </c>
       <c r="E18" s="3">
-        <v>701900</v>
+        <v>580300</v>
       </c>
       <c r="F18" s="3">
-        <v>587200</v>
+        <v>668800</v>
       </c>
       <c r="G18" s="3">
-        <v>710000</v>
+        <v>559500</v>
       </c>
       <c r="H18" s="3">
-        <v>549000</v>
+        <v>676500</v>
       </c>
       <c r="I18" s="3">
-        <v>543300</v>
+        <v>523100</v>
       </c>
       <c r="J18" s="3">
+        <v>517700</v>
+      </c>
+      <c r="K18" s="3">
         <v>423400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>567900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>518600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,168 +1068,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>24400</v>
+        <v>64200</v>
       </c>
       <c r="E20" s="3">
-        <v>169000</v>
+        <v>23300</v>
       </c>
       <c r="F20" s="3">
-        <v>-15600</v>
+        <v>161000</v>
       </c>
       <c r="G20" s="3">
-        <v>-93600</v>
+        <v>-14800</v>
       </c>
       <c r="H20" s="3">
-        <v>-59200</v>
+        <v>-89200</v>
       </c>
       <c r="I20" s="3">
-        <v>-25900</v>
+        <v>-56400</v>
       </c>
       <c r="J20" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K20" s="3">
         <v>149200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1011800</v>
+        <v>1101500</v>
       </c>
       <c r="E21" s="3">
-        <v>1305300</v>
+        <v>964100</v>
       </c>
       <c r="F21" s="3">
-        <v>969100</v>
+        <v>1243800</v>
       </c>
       <c r="G21" s="3">
-        <v>1025600</v>
+        <v>923400</v>
       </c>
       <c r="H21" s="3">
-        <v>881600</v>
+        <v>977200</v>
       </c>
       <c r="I21" s="3">
-        <v>949100</v>
+        <v>840100</v>
       </c>
       <c r="J21" s="3">
+        <v>904400</v>
+      </c>
+      <c r="K21" s="3">
         <v>964800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1044000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>860700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>631100</v>
+        <v>694700</v>
       </c>
       <c r="E23" s="3">
-        <v>868600</v>
+        <v>601400</v>
       </c>
       <c r="F23" s="3">
-        <v>570100</v>
+        <v>827600</v>
       </c>
       <c r="G23" s="3">
-        <v>614300</v>
+        <v>543300</v>
       </c>
       <c r="H23" s="3">
-        <v>488100</v>
+        <v>585300</v>
       </c>
       <c r="I23" s="3">
-        <v>515900</v>
+        <v>465100</v>
       </c>
       <c r="J23" s="3">
+        <v>491600</v>
+      </c>
+      <c r="K23" s="3">
         <v>571900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>630400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>186000</v>
+        <v>211400</v>
       </c>
       <c r="E24" s="3">
-        <v>219100</v>
+        <v>177300</v>
       </c>
       <c r="F24" s="3">
-        <v>157400</v>
+        <v>208800</v>
       </c>
       <c r="G24" s="3">
-        <v>160300</v>
+        <v>150000</v>
       </c>
       <c r="H24" s="3">
-        <v>129100</v>
+        <v>152700</v>
       </c>
       <c r="I24" s="3">
-        <v>58600</v>
+        <v>123000</v>
       </c>
       <c r="J24" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K24" s="3">
         <v>180300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>128500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1228,72 +1276,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>445100</v>
+        <v>483400</v>
       </c>
       <c r="E26" s="3">
-        <v>649500</v>
+        <v>424100</v>
       </c>
       <c r="F26" s="3">
-        <v>412800</v>
+        <v>618800</v>
       </c>
       <c r="G26" s="3">
-        <v>454000</v>
+        <v>393300</v>
       </c>
       <c r="H26" s="3">
-        <v>359000</v>
+        <v>432600</v>
       </c>
       <c r="I26" s="3">
-        <v>457300</v>
+        <v>342100</v>
       </c>
       <c r="J26" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K26" s="3">
         <v>391700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>474200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>406700</v>
+        <v>449300</v>
       </c>
       <c r="E27" s="3">
-        <v>611700</v>
+        <v>387500</v>
       </c>
       <c r="F27" s="3">
-        <v>390200</v>
+        <v>582900</v>
       </c>
       <c r="G27" s="3">
-        <v>425600</v>
+        <v>371800</v>
       </c>
       <c r="H27" s="3">
-        <v>331500</v>
+        <v>405500</v>
       </c>
       <c r="I27" s="3">
-        <v>431100</v>
+        <v>315800</v>
       </c>
       <c r="J27" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K27" s="3">
         <v>355600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>449400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1324,8 +1381,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1356,8 +1416,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1388,8 +1451,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1420,72 +1486,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-24400</v>
+        <v>-64200</v>
       </c>
       <c r="E32" s="3">
-        <v>-169000</v>
+        <v>-23300</v>
       </c>
       <c r="F32" s="3">
-        <v>15600</v>
+        <v>-161000</v>
       </c>
       <c r="G32" s="3">
-        <v>93600</v>
+        <v>14800</v>
       </c>
       <c r="H32" s="3">
-        <v>59200</v>
+        <v>89200</v>
       </c>
       <c r="I32" s="3">
-        <v>25900</v>
+        <v>56400</v>
       </c>
       <c r="J32" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>406700</v>
+        <v>449300</v>
       </c>
       <c r="E33" s="3">
-        <v>611700</v>
+        <v>387500</v>
       </c>
       <c r="F33" s="3">
-        <v>390200</v>
+        <v>582900</v>
       </c>
       <c r="G33" s="3">
-        <v>425600</v>
+        <v>371800</v>
       </c>
       <c r="H33" s="3">
-        <v>331500</v>
+        <v>405500</v>
       </c>
       <c r="I33" s="3">
-        <v>431100</v>
+        <v>315800</v>
       </c>
       <c r="J33" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K33" s="3">
         <v>355600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>449400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1516,77 +1591,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>406700</v>
+        <v>449300</v>
       </c>
       <c r="E35" s="3">
-        <v>611700</v>
+        <v>387500</v>
       </c>
       <c r="F35" s="3">
-        <v>390200</v>
+        <v>582900</v>
       </c>
       <c r="G35" s="3">
-        <v>425600</v>
+        <v>371800</v>
       </c>
       <c r="H35" s="3">
-        <v>331500</v>
+        <v>405500</v>
       </c>
       <c r="I35" s="3">
-        <v>431100</v>
+        <v>315800</v>
       </c>
       <c r="J35" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K35" s="3">
         <v>355600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>449400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1599,8 +1683,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1613,63 +1698,67 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3444200</v>
+        <v>3725000</v>
       </c>
       <c r="E41" s="3">
-        <v>2610700</v>
+        <v>3281800</v>
       </c>
       <c r="F41" s="3">
-        <v>3354800</v>
+        <v>2487600</v>
       </c>
       <c r="G41" s="3">
-        <v>3275700</v>
+        <v>3196600</v>
       </c>
       <c r="H41" s="3">
-        <v>3117300</v>
+        <v>3121200</v>
       </c>
       <c r="I41" s="3">
-        <v>2894100</v>
+        <v>2970300</v>
       </c>
       <c r="J41" s="3">
+        <v>2757600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3477000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3848200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3553000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>56800</v>
+        <v>21100</v>
       </c>
       <c r="E42" s="3">
-        <v>78600</v>
+        <v>54100</v>
       </c>
       <c r="F42" s="3">
-        <v>88100</v>
+        <v>74900</v>
       </c>
       <c r="G42" s="3">
-        <v>61600</v>
+        <v>83900</v>
       </c>
       <c r="H42" s="3">
-        <v>28800</v>
+        <v>58700</v>
       </c>
       <c r="I42" s="3">
-        <v>24300</v>
+        <v>27500</v>
       </c>
       <c r="J42" s="3">
-        <v>700</v>
+        <v>23200</v>
       </c>
       <c r="K42" s="3">
         <v>700</v>
@@ -1677,232 +1766,256 @@
       <c r="L42" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5185200</v>
+        <v>5157900</v>
       </c>
       <c r="E43" s="3">
-        <v>5469500</v>
+        <v>4940700</v>
       </c>
       <c r="F43" s="3">
-        <v>4015100</v>
+        <v>5211600</v>
       </c>
       <c r="G43" s="3">
-        <v>3973800</v>
+        <v>3825800</v>
       </c>
       <c r="H43" s="3">
-        <v>3798200</v>
+        <v>3786400</v>
       </c>
       <c r="I43" s="3">
-        <v>3666400</v>
+        <v>3619100</v>
       </c>
       <c r="J43" s="3">
+        <v>3493500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3275800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3533700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3740600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6192200</v>
+        <v>6170100</v>
       </c>
       <c r="E44" s="3">
-        <v>5827900</v>
+        <v>5900200</v>
       </c>
       <c r="F44" s="3">
-        <v>6372900</v>
+        <v>5553100</v>
       </c>
       <c r="G44" s="3">
-        <v>5754600</v>
+        <v>6072400</v>
       </c>
       <c r="H44" s="3">
-        <v>5286500</v>
+        <v>5483200</v>
       </c>
       <c r="I44" s="3">
-        <v>4690600</v>
+        <v>5037200</v>
       </c>
       <c r="J44" s="3">
+        <v>4469400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4587800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4330100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4379900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1499700</v>
+        <v>1729100</v>
       </c>
       <c r="E45" s="3">
-        <v>1557300</v>
+        <v>1429000</v>
       </c>
       <c r="F45" s="3">
-        <v>2713100</v>
+        <v>1483900</v>
       </c>
       <c r="G45" s="3">
-        <v>2607300</v>
+        <v>2585200</v>
       </c>
       <c r="H45" s="3">
-        <v>2316700</v>
+        <v>2484300</v>
       </c>
       <c r="I45" s="3">
-        <v>2267500</v>
+        <v>2207400</v>
       </c>
       <c r="J45" s="3">
+        <v>2160500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2308900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2275900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2209100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16378100</v>
+        <v>16803200</v>
       </c>
       <c r="E46" s="3">
-        <v>15544100</v>
+        <v>15605700</v>
       </c>
       <c r="F46" s="3">
-        <v>16544000</v>
+        <v>14811100</v>
       </c>
       <c r="G46" s="3">
-        <v>15672800</v>
+        <v>15763800</v>
       </c>
       <c r="H46" s="3">
-        <v>14547500</v>
+        <v>14933700</v>
       </c>
       <c r="I46" s="3">
-        <v>13542900</v>
+        <v>13861500</v>
       </c>
       <c r="J46" s="3">
+        <v>12904200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13650100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13988700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13883200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2659900</v>
+        <v>2831600</v>
       </c>
       <c r="E47" s="3">
-        <v>2550800</v>
+        <v>2534500</v>
       </c>
       <c r="F47" s="3">
-        <v>509200</v>
+        <v>2430500</v>
       </c>
       <c r="G47" s="3">
-        <v>510400</v>
+        <v>485200</v>
       </c>
       <c r="H47" s="3">
-        <v>522900</v>
+        <v>486300</v>
       </c>
       <c r="I47" s="3">
-        <v>540600</v>
+        <v>498300</v>
       </c>
       <c r="J47" s="3">
+        <v>515200</v>
+      </c>
+      <c r="K47" s="3">
         <v>556100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>509400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>497200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>8446800</v>
+        <v>8413200</v>
       </c>
       <c r="E48" s="3">
-        <v>8312500</v>
+        <v>8048500</v>
       </c>
       <c r="F48" s="3">
-        <v>8410800</v>
+        <v>7920500</v>
       </c>
       <c r="G48" s="3">
-        <v>8397000</v>
+        <v>8014100</v>
       </c>
       <c r="H48" s="3">
-        <v>8316600</v>
+        <v>8001000</v>
       </c>
       <c r="I48" s="3">
-        <v>8199200</v>
+        <v>7924400</v>
       </c>
       <c r="J48" s="3">
+        <v>7812500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8166000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8367100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8429500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9042400</v>
+        <v>8819500</v>
       </c>
       <c r="E49" s="3">
-        <v>9038600</v>
+        <v>8616000</v>
       </c>
       <c r="F49" s="3">
-        <v>9233500</v>
+        <v>8612400</v>
       </c>
       <c r="G49" s="3">
-        <v>9282100</v>
+        <v>8798100</v>
       </c>
       <c r="H49" s="3">
-        <v>9192800</v>
+        <v>8844400</v>
       </c>
       <c r="I49" s="3">
-        <v>9053200</v>
+        <v>8759300</v>
       </c>
       <c r="J49" s="3">
+        <v>8626300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9054200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9078800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9087100</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1933,8 +2046,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1965,40 +2081,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1388300</v>
+        <v>1407500</v>
       </c>
       <c r="E52" s="3">
-        <v>1292700</v>
+        <v>1322900</v>
       </c>
       <c r="F52" s="3">
-        <v>3523100</v>
+        <v>1231800</v>
       </c>
       <c r="G52" s="3">
-        <v>3299100</v>
+        <v>3356900</v>
       </c>
       <c r="H52" s="3">
-        <v>3072300</v>
+        <v>3143500</v>
       </c>
       <c r="I52" s="3">
-        <v>2918000</v>
+        <v>2927500</v>
       </c>
       <c r="J52" s="3">
+        <v>2780400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2837000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2948300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2029,40 +2151,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>37915500</v>
+        <v>38274900</v>
       </c>
       <c r="E54" s="3">
-        <v>36738800</v>
+        <v>36127500</v>
       </c>
       <c r="F54" s="3">
-        <v>38220600</v>
+        <v>35006300</v>
       </c>
       <c r="G54" s="3">
-        <v>37161400</v>
+        <v>36418300</v>
       </c>
       <c r="H54" s="3">
-        <v>35652200</v>
+        <v>35409000</v>
       </c>
       <c r="I54" s="3">
-        <v>34253900</v>
+        <v>33970900</v>
       </c>
       <c r="J54" s="3">
+        <v>32638600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34263500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34892400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34797900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2075,8 +2203,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2089,200 +2218,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2628300</v>
+        <v>2476600</v>
       </c>
       <c r="E57" s="3">
-        <v>2566300</v>
+        <v>2504300</v>
       </c>
       <c r="F57" s="3">
-        <v>2833500</v>
+        <v>2445200</v>
       </c>
       <c r="G57" s="3">
-        <v>2639100</v>
+        <v>2699900</v>
       </c>
       <c r="H57" s="3">
-        <v>2533600</v>
+        <v>2514600</v>
       </c>
       <c r="I57" s="3">
-        <v>2441300</v>
+        <v>2414100</v>
       </c>
       <c r="J57" s="3">
+        <v>2326200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2363400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2294200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2332900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3149300</v>
+        <v>3687400</v>
       </c>
       <c r="E58" s="3">
-        <v>2136900</v>
+        <v>3000800</v>
       </c>
       <c r="F58" s="3">
-        <v>1750500</v>
+        <v>2036200</v>
       </c>
       <c r="G58" s="3">
-        <v>970700</v>
+        <v>1668000</v>
       </c>
       <c r="H58" s="3">
-        <v>1046200</v>
+        <v>924900</v>
       </c>
       <c r="I58" s="3">
-        <v>323700</v>
+        <v>996800</v>
       </c>
       <c r="J58" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2493700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2540900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3014200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5097100</v>
+        <v>5159700</v>
       </c>
       <c r="E59" s="3">
-        <v>5141000</v>
+        <v>4856800</v>
       </c>
       <c r="F59" s="3">
-        <v>5073400</v>
+        <v>4898600</v>
       </c>
       <c r="G59" s="3">
-        <v>4889500</v>
+        <v>4834200</v>
       </c>
       <c r="H59" s="3">
-        <v>4631800</v>
+        <v>4658900</v>
       </c>
       <c r="I59" s="3">
-        <v>4883600</v>
+        <v>4413300</v>
       </c>
       <c r="J59" s="3">
+        <v>4653300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4839300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4883300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4769000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10874700</v>
+        <v>11323700</v>
       </c>
       <c r="E60" s="3">
-        <v>9844200</v>
+        <v>10361900</v>
       </c>
       <c r="F60" s="3">
-        <v>9657400</v>
+        <v>9380000</v>
       </c>
       <c r="G60" s="3">
-        <v>8499300</v>
+        <v>9202000</v>
       </c>
       <c r="H60" s="3">
-        <v>8211500</v>
+        <v>8098500</v>
       </c>
       <c r="I60" s="3">
-        <v>7648600</v>
+        <v>7824300</v>
       </c>
       <c r="J60" s="3">
+        <v>7287900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9696400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9718400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10116000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>17000</v>
+        <v>16700</v>
       </c>
       <c r="E61" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="F61" s="3">
-        <v>1300100</v>
+        <v>16600</v>
       </c>
       <c r="G61" s="3">
-        <v>1300300</v>
+        <v>1238800</v>
       </c>
       <c r="H61" s="3">
-        <v>1295300</v>
+        <v>1239000</v>
       </c>
       <c r="I61" s="3">
-        <v>1296000</v>
+        <v>1234200</v>
       </c>
       <c r="J61" s="3">
+        <v>1234900</v>
+      </c>
+      <c r="K61" s="3">
         <v>42700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2649100</v>
+        <v>2579900</v>
       </c>
       <c r="E62" s="3">
-        <v>2730600</v>
+        <v>2524200</v>
       </c>
       <c r="F62" s="3">
-        <v>3079100</v>
+        <v>2601900</v>
       </c>
       <c r="G62" s="3">
-        <v>3109200</v>
+        <v>2933900</v>
       </c>
       <c r="H62" s="3">
-        <v>3086100</v>
+        <v>2962600</v>
       </c>
       <c r="I62" s="3">
-        <v>2969600</v>
+        <v>2940600</v>
       </c>
       <c r="J62" s="3">
+        <v>2829600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3188900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3366400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3458200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2313,8 +2461,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2345,8 +2496,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2377,40 +2531,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>15257500</v>
+        <v>15594600</v>
       </c>
       <c r="E66" s="3">
-        <v>14293300</v>
+        <v>14538000</v>
       </c>
       <c r="F66" s="3">
-        <v>15706500</v>
+        <v>13619300</v>
       </c>
       <c r="G66" s="3">
-        <v>14570100</v>
+        <v>14965800</v>
       </c>
       <c r="H66" s="3">
-        <v>14224300</v>
+        <v>13883000</v>
       </c>
       <c r="I66" s="3">
-        <v>13534000</v>
+        <v>13553500</v>
       </c>
       <c r="J66" s="3">
+        <v>12895800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14507600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14713500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15171700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2423,8 +2583,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2455,8 +2616,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2487,8 +2651,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2519,8 +2686,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2551,40 +2721,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>26855300</v>
+        <v>26037900</v>
       </c>
       <c r="E72" s="3">
-        <v>26887800</v>
+        <v>25588800</v>
       </c>
       <c r="F72" s="3">
-        <v>26276100</v>
+        <v>25619900</v>
       </c>
       <c r="G72" s="3">
-        <v>26331600</v>
+        <v>25037000</v>
       </c>
       <c r="H72" s="3">
-        <v>25906100</v>
+        <v>25089900</v>
       </c>
       <c r="I72" s="3">
-        <v>25999600</v>
+        <v>24684400</v>
       </c>
       <c r="J72" s="3">
+        <v>24773600</v>
+      </c>
+      <c r="K72" s="3">
         <v>25558200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26037900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25588500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2615,8 +2791,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2647,8 +2826,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2679,40 +2861,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>22658000</v>
+        <v>22680300</v>
       </c>
       <c r="E76" s="3">
-        <v>22445500</v>
+        <v>21589500</v>
       </c>
       <c r="F76" s="3">
-        <v>22514200</v>
+        <v>21387000</v>
       </c>
       <c r="G76" s="3">
-        <v>22591300</v>
+        <v>21452500</v>
       </c>
       <c r="H76" s="3">
-        <v>21427900</v>
+        <v>21525900</v>
       </c>
       <c r="I76" s="3">
-        <v>20719900</v>
+        <v>20417400</v>
       </c>
       <c r="J76" s="3">
+        <v>19742800</v>
+      </c>
+      <c r="K76" s="3">
         <v>19755900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20178900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19626200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2743,77 +2931,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>406700</v>
+        <v>449300</v>
       </c>
       <c r="E81" s="3">
-        <v>611700</v>
+        <v>387500</v>
       </c>
       <c r="F81" s="3">
-        <v>390200</v>
+        <v>582900</v>
       </c>
       <c r="G81" s="3">
-        <v>425600</v>
+        <v>371800</v>
       </c>
       <c r="H81" s="3">
-        <v>331500</v>
+        <v>405500</v>
       </c>
       <c r="I81" s="3">
-        <v>431100</v>
+        <v>315800</v>
       </c>
       <c r="J81" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K81" s="3">
         <v>355600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>449400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2826,40 +3023,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>378300</v>
+        <v>403400</v>
       </c>
       <c r="E83" s="3">
-        <v>434500</v>
+        <v>360500</v>
       </c>
       <c r="F83" s="3">
-        <v>397400</v>
+        <v>414000</v>
       </c>
       <c r="G83" s="3">
-        <v>409200</v>
+        <v>378700</v>
       </c>
       <c r="H83" s="3">
-        <v>391900</v>
+        <v>389900</v>
       </c>
       <c r="I83" s="3">
-        <v>431700</v>
+        <v>373400</v>
       </c>
       <c r="J83" s="3">
+        <v>411300</v>
+      </c>
+      <c r="K83" s="3">
         <v>392200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>412300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2890,8 +3091,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2922,8 +3126,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2954,8 +3161,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2986,8 +3196,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3018,40 +3231,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>530700</v>
+        <v>552700</v>
       </c>
       <c r="E89" s="3">
-        <v>534400</v>
+        <v>505700</v>
       </c>
       <c r="F89" s="3">
-        <v>431900</v>
+        <v>509200</v>
       </c>
       <c r="G89" s="3">
-        <v>815800</v>
+        <v>411500</v>
       </c>
       <c r="H89" s="3">
-        <v>111200</v>
+        <v>777400</v>
       </c>
       <c r="I89" s="3">
-        <v>728600</v>
+        <v>106000</v>
       </c>
       <c r="J89" s="3">
+        <v>694300</v>
+      </c>
+      <c r="K89" s="3">
         <v>557800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1053700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>950000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3064,40 +3283,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-47371000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43314000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56276000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44602000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40183000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47466000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54255000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41155000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-299600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-302700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3128,8 +3351,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3160,40 +3386,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-274900</v>
+        <v>-386400</v>
       </c>
       <c r="E94" s="3">
-        <v>-349500</v>
+        <v>-261900</v>
       </c>
       <c r="F94" s="3">
-        <v>-353000</v>
+        <v>-333000</v>
       </c>
       <c r="G94" s="3">
-        <v>-348600</v>
+        <v>-336300</v>
       </c>
       <c r="H94" s="3">
-        <v>-252700</v>
+        <v>-332100</v>
       </c>
       <c r="I94" s="3">
-        <v>-424700</v>
+        <v>-240800</v>
       </c>
       <c r="J94" s="3">
+        <v>-404700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-490000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-302300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-288600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3206,40 +3438,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-439300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-418600</v>
       </c>
       <c r="F96" s="3">
-        <v>-445600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-424600</v>
       </c>
       <c r="H96" s="3">
-        <v>-414700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-395100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-339300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3270,8 +3506,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3302,8 +3541,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3334,100 +3576,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>546000</v>
+        <v>157600</v>
       </c>
       <c r="E100" s="3">
-        <v>-845500</v>
+        <v>520300</v>
       </c>
       <c r="F100" s="3">
-        <v>-51000</v>
+        <v>-805600</v>
       </c>
       <c r="G100" s="3">
-        <v>-437900</v>
+        <v>-48600</v>
       </c>
       <c r="H100" s="3">
-        <v>275600</v>
+        <v>-417300</v>
       </c>
       <c r="I100" s="3">
-        <v>-918400</v>
+        <v>262600</v>
       </c>
       <c r="J100" s="3">
+        <v>-875100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-362500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-469900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>31600</v>
+        <v>119300</v>
       </c>
       <c r="E101" s="3">
-        <v>-83500</v>
+        <v>30100</v>
       </c>
       <c r="F101" s="3">
-        <v>51200</v>
+        <v>-79600</v>
       </c>
       <c r="G101" s="3">
-        <v>129000</v>
+        <v>48800</v>
       </c>
       <c r="H101" s="3">
-        <v>89100</v>
+        <v>122900</v>
       </c>
       <c r="I101" s="3">
-        <v>31600</v>
+        <v>84900</v>
       </c>
       <c r="J101" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>833500</v>
+        <v>443200</v>
       </c>
       <c r="E102" s="3">
-        <v>-744100</v>
+        <v>794200</v>
       </c>
       <c r="F102" s="3">
-        <v>79100</v>
+        <v>-709000</v>
       </c>
       <c r="G102" s="3">
-        <v>158300</v>
+        <v>75400</v>
       </c>
       <c r="H102" s="3">
-        <v>223300</v>
+        <v>150900</v>
       </c>
       <c r="I102" s="3">
-        <v>-582900</v>
+        <v>212700</v>
       </c>
       <c r="J102" s="3">
+        <v>-555400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-298000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>295200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>556500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJPY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,163 +662,175 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7013500</v>
+        <v>6807600</v>
       </c>
       <c r="E8" s="3">
-        <v>6671600</v>
+        <v>6778700</v>
       </c>
       <c r="F8" s="3">
-        <v>7949800</v>
+        <v>6448300</v>
       </c>
       <c r="G8" s="3">
-        <v>6843100</v>
+        <v>7683600</v>
       </c>
       <c r="H8" s="3">
-        <v>6861700</v>
+        <v>6614000</v>
       </c>
       <c r="I8" s="3">
-        <v>6041100</v>
+        <v>6632000</v>
       </c>
       <c r="J8" s="3">
+        <v>5838900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6563900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6008300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6482200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6193500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3683100</v>
+        <v>3606800</v>
       </c>
       <c r="E9" s="3">
-        <v>3552600</v>
+        <v>3559800</v>
       </c>
       <c r="F9" s="3">
-        <v>4388800</v>
+        <v>3433600</v>
       </c>
       <c r="G9" s="3">
-        <v>3744500</v>
+        <v>4241900</v>
       </c>
       <c r="H9" s="3">
-        <v>3673800</v>
+        <v>3619200</v>
       </c>
       <c r="I9" s="3">
-        <v>3331700</v>
+        <v>3550800</v>
       </c>
       <c r="J9" s="3">
+        <v>3220100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3555900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3211100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3412700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3368400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3330400</v>
+        <v>3200800</v>
       </c>
       <c r="E10" s="3">
-        <v>3119000</v>
+        <v>3218900</v>
       </c>
       <c r="F10" s="3">
-        <v>3561000</v>
+        <v>3014600</v>
       </c>
       <c r="G10" s="3">
-        <v>3098600</v>
+        <v>3441800</v>
       </c>
       <c r="H10" s="3">
-        <v>3187900</v>
+        <v>2994900</v>
       </c>
       <c r="I10" s="3">
-        <v>2709500</v>
+        <v>3081200</v>
       </c>
       <c r="J10" s="3">
+        <v>2618800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3008000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2797200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3069500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,43 +844,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>590900</v>
+        <v>559900</v>
       </c>
       <c r="E12" s="3">
-        <v>525500</v>
+        <v>571100</v>
       </c>
       <c r="F12" s="3">
-        <v>588500</v>
+        <v>507900</v>
       </c>
       <c r="G12" s="3">
-        <v>515400</v>
+        <v>568800</v>
       </c>
       <c r="H12" s="3">
-        <v>513300</v>
+        <v>498100</v>
       </c>
       <c r="I12" s="3">
-        <v>490100</v>
+        <v>496100</v>
       </c>
       <c r="J12" s="3">
+        <v>473700</v>
+      </c>
+      <c r="K12" s="3">
         <v>524400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>524200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>521500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,8 +918,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -937,8 +956,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,8 +994,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -984,78 +1009,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6379500</v>
+        <v>6259000</v>
       </c>
       <c r="E17" s="3">
-        <v>6091300</v>
+        <v>6166000</v>
       </c>
       <c r="F17" s="3">
-        <v>7281000</v>
+        <v>5887400</v>
       </c>
       <c r="G17" s="3">
-        <v>6283600</v>
+        <v>7037300</v>
       </c>
       <c r="H17" s="3">
-        <v>6185200</v>
+        <v>6073300</v>
       </c>
       <c r="I17" s="3">
-        <v>5518100</v>
+        <v>5978200</v>
       </c>
       <c r="J17" s="3">
+        <v>5333300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6046200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5584800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5914300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5674800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>633900</v>
+        <v>548600</v>
       </c>
       <c r="E18" s="3">
-        <v>580300</v>
+        <v>612700</v>
       </c>
       <c r="F18" s="3">
-        <v>668800</v>
+        <v>560900</v>
       </c>
       <c r="G18" s="3">
-        <v>559500</v>
+        <v>646400</v>
       </c>
       <c r="H18" s="3">
-        <v>676500</v>
+        <v>540800</v>
       </c>
       <c r="I18" s="3">
-        <v>523100</v>
+        <v>653900</v>
       </c>
       <c r="J18" s="3">
+        <v>505600</v>
+      </c>
+      <c r="K18" s="3">
         <v>517700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>423400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>567900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>518600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,183 +1101,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>64200</v>
+        <v>35600</v>
       </c>
       <c r="E20" s="3">
-        <v>23300</v>
+        <v>62000</v>
       </c>
       <c r="F20" s="3">
-        <v>161000</v>
+        <v>22500</v>
       </c>
       <c r="G20" s="3">
-        <v>-14800</v>
+        <v>155600</v>
       </c>
       <c r="H20" s="3">
-        <v>-89200</v>
+        <v>-14300</v>
       </c>
       <c r="I20" s="3">
-        <v>-56400</v>
+        <v>-86200</v>
       </c>
       <c r="J20" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>149200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>63800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1101500</v>
+        <v>1001900</v>
       </c>
       <c r="E21" s="3">
-        <v>964100</v>
+        <v>1064600</v>
       </c>
       <c r="F21" s="3">
-        <v>1243800</v>
+        <v>931800</v>
       </c>
       <c r="G21" s="3">
-        <v>923400</v>
+        <v>1202200</v>
       </c>
       <c r="H21" s="3">
-        <v>977200</v>
+        <v>892500</v>
       </c>
       <c r="I21" s="3">
-        <v>840100</v>
+        <v>944500</v>
       </c>
       <c r="J21" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K21" s="3">
         <v>904400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>964800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1044000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>860700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>694700</v>
+        <v>579800</v>
       </c>
       <c r="E23" s="3">
-        <v>601400</v>
+        <v>671500</v>
       </c>
       <c r="F23" s="3">
-        <v>827600</v>
+        <v>581200</v>
       </c>
       <c r="G23" s="3">
-        <v>543300</v>
+        <v>799900</v>
       </c>
       <c r="H23" s="3">
-        <v>585300</v>
+        <v>525100</v>
       </c>
       <c r="I23" s="3">
-        <v>465100</v>
+        <v>565700</v>
       </c>
       <c r="J23" s="3">
+        <v>449500</v>
+      </c>
+      <c r="K23" s="3">
         <v>491600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>571900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>630400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>211400</v>
+        <v>142000</v>
       </c>
       <c r="E24" s="3">
-        <v>177300</v>
+        <v>204300</v>
       </c>
       <c r="F24" s="3">
-        <v>208800</v>
+        <v>171300</v>
       </c>
       <c r="G24" s="3">
-        <v>150000</v>
+        <v>201800</v>
       </c>
       <c r="H24" s="3">
-        <v>152700</v>
+        <v>144900</v>
       </c>
       <c r="I24" s="3">
-        <v>123000</v>
+        <v>147600</v>
       </c>
       <c r="J24" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K24" s="3">
         <v>55900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>180300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>156200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>128500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1279,78 +1327,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>483400</v>
+        <v>437800</v>
       </c>
       <c r="E26" s="3">
-        <v>424100</v>
+        <v>467200</v>
       </c>
       <c r="F26" s="3">
-        <v>618800</v>
+        <v>409900</v>
       </c>
       <c r="G26" s="3">
-        <v>393300</v>
+        <v>598100</v>
       </c>
       <c r="H26" s="3">
-        <v>432600</v>
+        <v>380100</v>
       </c>
       <c r="I26" s="3">
-        <v>342100</v>
+        <v>418100</v>
       </c>
       <c r="J26" s="3">
+        <v>330600</v>
+      </c>
+      <c r="K26" s="3">
         <v>435700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>391700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>474200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>449300</v>
+        <v>412600</v>
       </c>
       <c r="E27" s="3">
-        <v>387500</v>
+        <v>434300</v>
       </c>
       <c r="F27" s="3">
-        <v>582900</v>
+        <v>374600</v>
       </c>
       <c r="G27" s="3">
-        <v>371800</v>
+        <v>563400</v>
       </c>
       <c r="H27" s="3">
-        <v>405500</v>
+        <v>359300</v>
       </c>
       <c r="I27" s="3">
-        <v>315800</v>
+        <v>391900</v>
       </c>
       <c r="J27" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K27" s="3">
         <v>410800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>355600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>449400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1384,8 +1441,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1419,8 +1479,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1454,8 +1517,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1489,78 +1555,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-64200</v>
+        <v>-35600</v>
       </c>
       <c r="E32" s="3">
-        <v>-23300</v>
+        <v>-62000</v>
       </c>
       <c r="F32" s="3">
-        <v>-161000</v>
+        <v>-22500</v>
       </c>
       <c r="G32" s="3">
-        <v>14800</v>
+        <v>-155600</v>
       </c>
       <c r="H32" s="3">
-        <v>89200</v>
+        <v>14300</v>
       </c>
       <c r="I32" s="3">
-        <v>56400</v>
+        <v>86200</v>
       </c>
       <c r="J32" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K32" s="3">
         <v>24700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-149200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-63800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>449300</v>
+        <v>412600</v>
       </c>
       <c r="E33" s="3">
-        <v>387500</v>
+        <v>434300</v>
       </c>
       <c r="F33" s="3">
-        <v>582900</v>
+        <v>374600</v>
       </c>
       <c r="G33" s="3">
-        <v>371800</v>
+        <v>563400</v>
       </c>
       <c r="H33" s="3">
-        <v>405500</v>
+        <v>359300</v>
       </c>
       <c r="I33" s="3">
-        <v>315800</v>
+        <v>391900</v>
       </c>
       <c r="J33" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K33" s="3">
         <v>410800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>355600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>449400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1594,83 +1669,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>449300</v>
+        <v>412600</v>
       </c>
       <c r="E35" s="3">
-        <v>387500</v>
+        <v>434300</v>
       </c>
       <c r="F35" s="3">
-        <v>582900</v>
+        <v>374600</v>
       </c>
       <c r="G35" s="3">
-        <v>371800</v>
+        <v>563400</v>
       </c>
       <c r="H35" s="3">
-        <v>405500</v>
+        <v>359300</v>
       </c>
       <c r="I35" s="3">
-        <v>315800</v>
+        <v>391900</v>
       </c>
       <c r="J35" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K35" s="3">
         <v>410800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>355600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>449400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1684,8 +1768,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1699,69 +1784,73 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3725000</v>
+        <v>3457700</v>
       </c>
       <c r="E41" s="3">
-        <v>3281800</v>
+        <v>3600300</v>
       </c>
       <c r="F41" s="3">
-        <v>2487600</v>
+        <v>3171900</v>
       </c>
       <c r="G41" s="3">
-        <v>3196600</v>
+        <v>2404400</v>
       </c>
       <c r="H41" s="3">
-        <v>3121200</v>
+        <v>3089600</v>
       </c>
       <c r="I41" s="3">
-        <v>2970300</v>
+        <v>3016700</v>
       </c>
       <c r="J41" s="3">
+        <v>2870900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2757600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3477000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3848200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3553000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>21100</v>
+        <v>28700</v>
       </c>
       <c r="E42" s="3">
-        <v>54100</v>
+        <v>20400</v>
       </c>
       <c r="F42" s="3">
-        <v>74900</v>
+        <v>52300</v>
       </c>
       <c r="G42" s="3">
-        <v>83900</v>
+        <v>72400</v>
       </c>
       <c r="H42" s="3">
-        <v>58700</v>
+        <v>81100</v>
       </c>
       <c r="I42" s="3">
-        <v>27500</v>
+        <v>56700</v>
       </c>
       <c r="J42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K42" s="3">
         <v>23200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>700</v>
       </c>
       <c r="L42" s="3">
         <v>700</v>
@@ -1769,253 +1858,277 @@
       <c r="M42" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5157900</v>
+        <v>5086100</v>
       </c>
       <c r="E43" s="3">
-        <v>4940700</v>
+        <v>4985200</v>
       </c>
       <c r="F43" s="3">
-        <v>5211600</v>
+        <v>4775300</v>
       </c>
       <c r="G43" s="3">
-        <v>3825800</v>
+        <v>5037100</v>
       </c>
       <c r="H43" s="3">
-        <v>3786400</v>
+        <v>3697700</v>
       </c>
       <c r="I43" s="3">
-        <v>3619100</v>
+        <v>3659600</v>
       </c>
       <c r="J43" s="3">
+        <v>3497900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3493500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3275800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3533700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3740600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6170100</v>
+        <v>6068100</v>
       </c>
       <c r="E44" s="3">
-        <v>5900200</v>
+        <v>5963600</v>
       </c>
       <c r="F44" s="3">
-        <v>5553100</v>
+        <v>5702600</v>
       </c>
       <c r="G44" s="3">
-        <v>6072400</v>
+        <v>5367200</v>
       </c>
       <c r="H44" s="3">
-        <v>5483200</v>
+        <v>5869100</v>
       </c>
       <c r="I44" s="3">
-        <v>5037200</v>
+        <v>5299600</v>
       </c>
       <c r="J44" s="3">
+        <v>4868500</v>
+      </c>
+      <c r="K44" s="3">
         <v>4469400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4587800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4330100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4379900</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1729100</v>
+        <v>1702700</v>
       </c>
       <c r="E45" s="3">
-        <v>1429000</v>
+        <v>1671200</v>
       </c>
       <c r="F45" s="3">
-        <v>1483900</v>
+        <v>1381200</v>
       </c>
       <c r="G45" s="3">
-        <v>2585200</v>
+        <v>1434200</v>
       </c>
       <c r="H45" s="3">
-        <v>2484300</v>
+        <v>2498600</v>
       </c>
       <c r="I45" s="3">
-        <v>2207400</v>
+        <v>2401200</v>
       </c>
       <c r="J45" s="3">
+        <v>2133500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2160500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2308900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2275900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2209100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16803200</v>
+        <v>16343300</v>
       </c>
       <c r="E46" s="3">
-        <v>15605700</v>
+        <v>16240600</v>
       </c>
       <c r="F46" s="3">
-        <v>14811100</v>
+        <v>15083300</v>
       </c>
       <c r="G46" s="3">
-        <v>15763800</v>
+        <v>14315300</v>
       </c>
       <c r="H46" s="3">
-        <v>14933700</v>
+        <v>15236100</v>
       </c>
       <c r="I46" s="3">
-        <v>13861500</v>
+        <v>14433800</v>
       </c>
       <c r="J46" s="3">
+        <v>13397400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12904200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13650100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13988700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13883200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2831600</v>
+        <v>2695000</v>
       </c>
       <c r="E47" s="3">
-        <v>2534500</v>
+        <v>2736800</v>
       </c>
       <c r="F47" s="3">
-        <v>2430500</v>
+        <v>2449600</v>
       </c>
       <c r="G47" s="3">
-        <v>485200</v>
+        <v>2349200</v>
       </c>
       <c r="H47" s="3">
-        <v>486300</v>
+        <v>469000</v>
       </c>
       <c r="I47" s="3">
-        <v>498300</v>
+        <v>470000</v>
       </c>
       <c r="J47" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K47" s="3">
         <v>515200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>556100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>509400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>497200</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>8413200</v>
+        <v>8136200</v>
       </c>
       <c r="E48" s="3">
-        <v>8048500</v>
+        <v>8131500</v>
       </c>
       <c r="F48" s="3">
-        <v>7920500</v>
+        <v>7779000</v>
       </c>
       <c r="G48" s="3">
-        <v>8014100</v>
+        <v>7655300</v>
       </c>
       <c r="H48" s="3">
-        <v>8001000</v>
+        <v>7745800</v>
       </c>
       <c r="I48" s="3">
-        <v>7924400</v>
+        <v>7733100</v>
       </c>
       <c r="J48" s="3">
+        <v>7659100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7812500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8166000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8367100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8429500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8819500</v>
+        <v>8711800</v>
       </c>
       <c r="E49" s="3">
-        <v>8616000</v>
+        <v>8524200</v>
       </c>
       <c r="F49" s="3">
-        <v>8612400</v>
+        <v>8327600</v>
       </c>
       <c r="G49" s="3">
-        <v>8798100</v>
+        <v>8324000</v>
       </c>
       <c r="H49" s="3">
-        <v>8844400</v>
+        <v>8503600</v>
       </c>
       <c r="I49" s="3">
-        <v>8759300</v>
+        <v>8548300</v>
       </c>
       <c r="J49" s="3">
+        <v>8466100</v>
+      </c>
+      <c r="K49" s="3">
         <v>8626300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9054200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9078800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9087100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2049,8 +2162,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2084,43 +2200,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1407500</v>
+        <v>1423900</v>
       </c>
       <c r="E52" s="3">
-        <v>1322900</v>
+        <v>1360400</v>
       </c>
       <c r="F52" s="3">
-        <v>1231800</v>
+        <v>1278600</v>
       </c>
       <c r="G52" s="3">
-        <v>3356900</v>
+        <v>1190500</v>
       </c>
       <c r="H52" s="3">
-        <v>3143500</v>
+        <v>3244500</v>
       </c>
       <c r="I52" s="3">
-        <v>2927500</v>
+        <v>3038300</v>
       </c>
       <c r="J52" s="3">
+        <v>2829500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2780400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2837000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2948300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2154,43 +2276,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>38274900</v>
+        <v>37310200</v>
       </c>
       <c r="E54" s="3">
-        <v>36127500</v>
+        <v>36993500</v>
       </c>
       <c r="F54" s="3">
-        <v>35006300</v>
+        <v>34918000</v>
       </c>
       <c r="G54" s="3">
-        <v>36418300</v>
+        <v>33834300</v>
       </c>
       <c r="H54" s="3">
-        <v>35409000</v>
+        <v>35199000</v>
       </c>
       <c r="I54" s="3">
-        <v>33970900</v>
+        <v>34223500</v>
       </c>
       <c r="J54" s="3">
+        <v>32833600</v>
+      </c>
+      <c r="K54" s="3">
         <v>32638600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34263500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34892400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34797900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2204,8 +2332,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2219,218 +2348,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2476600</v>
+        <v>2284600</v>
       </c>
       <c r="E57" s="3">
-        <v>2504300</v>
+        <v>2393700</v>
       </c>
       <c r="F57" s="3">
-        <v>2445200</v>
+        <v>2420500</v>
       </c>
       <c r="G57" s="3">
-        <v>2699900</v>
+        <v>2363400</v>
       </c>
       <c r="H57" s="3">
-        <v>2514600</v>
+        <v>2609500</v>
       </c>
       <c r="I57" s="3">
-        <v>2414100</v>
+        <v>2430500</v>
       </c>
       <c r="J57" s="3">
+        <v>2333300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2326200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2363400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2294200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2332900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3687400</v>
+        <v>4034300</v>
       </c>
       <c r="E58" s="3">
-        <v>3000800</v>
+        <v>3563900</v>
       </c>
       <c r="F58" s="3">
-        <v>2036200</v>
+        <v>2900300</v>
       </c>
       <c r="G58" s="3">
-        <v>1668000</v>
+        <v>1968000</v>
       </c>
       <c r="H58" s="3">
-        <v>924900</v>
+        <v>1612100</v>
       </c>
       <c r="I58" s="3">
-        <v>996800</v>
+        <v>894000</v>
       </c>
       <c r="J58" s="3">
+        <v>963500</v>
+      </c>
+      <c r="K58" s="3">
         <v>308400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2493700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2540900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3014200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5159700</v>
+        <v>5137200</v>
       </c>
       <c r="E59" s="3">
-        <v>4856800</v>
+        <v>4987000</v>
       </c>
       <c r="F59" s="3">
-        <v>4898600</v>
+        <v>4694200</v>
       </c>
       <c r="G59" s="3">
-        <v>4834200</v>
+        <v>4734600</v>
       </c>
       <c r="H59" s="3">
-        <v>4658900</v>
+        <v>4672300</v>
       </c>
       <c r="I59" s="3">
-        <v>4413300</v>
+        <v>4502900</v>
       </c>
       <c r="J59" s="3">
+        <v>4265600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4653300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4839300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4883300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4769000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11323700</v>
+        <v>11456100</v>
       </c>
       <c r="E60" s="3">
-        <v>10361900</v>
+        <v>10944600</v>
       </c>
       <c r="F60" s="3">
-        <v>9380000</v>
+        <v>10015000</v>
       </c>
       <c r="G60" s="3">
-        <v>9202000</v>
+        <v>9065900</v>
       </c>
       <c r="H60" s="3">
-        <v>8098500</v>
+        <v>8894000</v>
       </c>
       <c r="I60" s="3">
-        <v>7824300</v>
+        <v>7827300</v>
       </c>
       <c r="J60" s="3">
+        <v>7562300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7287900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9696400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9718400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10116000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>19400</v>
       </c>
       <c r="E61" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="F61" s="3">
-        <v>16600</v>
+        <v>15700</v>
       </c>
       <c r="G61" s="3">
-        <v>1238800</v>
+        <v>16000</v>
       </c>
       <c r="H61" s="3">
-        <v>1239000</v>
+        <v>1197300</v>
       </c>
       <c r="I61" s="3">
-        <v>1234200</v>
+        <v>1197500</v>
       </c>
       <c r="J61" s="3">
+        <v>1192900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1234900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2579900</v>
+        <v>2359000</v>
       </c>
       <c r="E62" s="3">
-        <v>2524200</v>
+        <v>2493500</v>
       </c>
       <c r="F62" s="3">
-        <v>2601900</v>
+        <v>2439700</v>
       </c>
       <c r="G62" s="3">
-        <v>2933900</v>
+        <v>2514800</v>
       </c>
       <c r="H62" s="3">
-        <v>2962600</v>
+        <v>2835700</v>
       </c>
       <c r="I62" s="3">
-        <v>2940600</v>
+        <v>2863400</v>
       </c>
       <c r="J62" s="3">
+        <v>2842100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2829600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3188900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3366400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3458200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2464,8 +2612,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2499,8 +2650,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2534,43 +2688,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>15594600</v>
+        <v>15456600</v>
       </c>
       <c r="E66" s="3">
-        <v>14538000</v>
+        <v>15072500</v>
       </c>
       <c r="F66" s="3">
-        <v>13619300</v>
+        <v>14051300</v>
       </c>
       <c r="G66" s="3">
-        <v>14965800</v>
+        <v>13163300</v>
       </c>
       <c r="H66" s="3">
-        <v>13883000</v>
+        <v>14464800</v>
       </c>
       <c r="I66" s="3">
-        <v>13553500</v>
+        <v>13418200</v>
       </c>
       <c r="J66" s="3">
+        <v>13099800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12895800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14507600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14713500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15171700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2584,8 +2744,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2619,8 +2780,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2654,8 +2818,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2689,8 +2856,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2724,43 +2894,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>25114300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25166200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>24732200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>24762200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>24198800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>24249900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>23858000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>24773600</v>
+      </c>
+      <c r="L72" s="3">
+        <v>25558200</v>
+      </c>
+      <c r="M72" s="3">
         <v>26037900</v>
       </c>
-      <c r="E72" s="3">
-        <v>25588800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>25619900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>25037000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>25089900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>24684400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>24773600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>25558200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>26037900</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25588500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2794,8 +2970,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2829,8 +3008,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2864,43 +3046,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>22680300</v>
+        <v>21853600</v>
       </c>
       <c r="E76" s="3">
-        <v>21589500</v>
+        <v>21921000</v>
       </c>
       <c r="F76" s="3">
-        <v>21387000</v>
+        <v>20866700</v>
       </c>
       <c r="G76" s="3">
-        <v>21452500</v>
+        <v>20671000</v>
       </c>
       <c r="H76" s="3">
-        <v>21525900</v>
+        <v>20734300</v>
       </c>
       <c r="I76" s="3">
-        <v>20417400</v>
+        <v>20805300</v>
       </c>
       <c r="J76" s="3">
+        <v>19733900</v>
+      </c>
+      <c r="K76" s="3">
         <v>19742800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19755900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20178900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19626200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2934,83 +3122,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>449300</v>
+        <v>412600</v>
       </c>
       <c r="E81" s="3">
-        <v>387500</v>
+        <v>434300</v>
       </c>
       <c r="F81" s="3">
-        <v>582900</v>
+        <v>374600</v>
       </c>
       <c r="G81" s="3">
-        <v>371800</v>
+        <v>563400</v>
       </c>
       <c r="H81" s="3">
-        <v>405500</v>
+        <v>359300</v>
       </c>
       <c r="I81" s="3">
-        <v>315800</v>
+        <v>391900</v>
       </c>
       <c r="J81" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K81" s="3">
         <v>410800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>355600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>449400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3024,43 +3221,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>403400</v>
+        <v>417800</v>
       </c>
       <c r="E83" s="3">
-        <v>360500</v>
+        <v>389900</v>
       </c>
       <c r="F83" s="3">
-        <v>414000</v>
+        <v>348400</v>
       </c>
       <c r="G83" s="3">
-        <v>378700</v>
+        <v>400200</v>
       </c>
       <c r="H83" s="3">
-        <v>389900</v>
+        <v>366000</v>
       </c>
       <c r="I83" s="3">
-        <v>373400</v>
+        <v>376800</v>
       </c>
       <c r="J83" s="3">
+        <v>360900</v>
+      </c>
+      <c r="K83" s="3">
         <v>411300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>392200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>412300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3094,8 +3295,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3129,8 +3333,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3164,8 +3371,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3199,8 +3409,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3234,43 +3447,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>552700</v>
+        <v>769100</v>
       </c>
       <c r="E89" s="3">
-        <v>505700</v>
+        <v>534200</v>
       </c>
       <c r="F89" s="3">
-        <v>509200</v>
+        <v>488800</v>
       </c>
       <c r="G89" s="3">
-        <v>411500</v>
+        <v>492200</v>
       </c>
       <c r="H89" s="3">
-        <v>777400</v>
+        <v>397700</v>
       </c>
       <c r="I89" s="3">
-        <v>106000</v>
+        <v>751300</v>
       </c>
       <c r="J89" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K89" s="3">
         <v>694300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>557800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1053700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>950000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3284,43 +3503,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-66263000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47371000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43314000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56276000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44602000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40183000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47466000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54255000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41155000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-299600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-302700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3354,8 +3577,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3389,43 +3615,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-386400</v>
+        <v>-728100</v>
       </c>
       <c r="E94" s="3">
-        <v>-261900</v>
+        <v>-373500</v>
       </c>
       <c r="F94" s="3">
-        <v>-333000</v>
+        <v>-253100</v>
       </c>
       <c r="G94" s="3">
-        <v>-336300</v>
+        <v>-321800</v>
       </c>
       <c r="H94" s="3">
-        <v>-332100</v>
+        <v>-325100</v>
       </c>
       <c r="I94" s="3">
-        <v>-240800</v>
+        <v>-321000</v>
       </c>
       <c r="J94" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-404700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-490000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-302300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-288600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3439,43 +3671,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-464400</v>
       </c>
       <c r="E96" s="3">
-        <v>-418600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-404600</v>
       </c>
       <c r="G96" s="3">
-        <v>-424600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-410400</v>
       </c>
       <c r="I96" s="3">
-        <v>-395100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-381900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-339300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3509,8 +3745,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3544,8 +3783,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3579,109 +3821,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>157600</v>
+        <v>-223100</v>
       </c>
       <c r="E100" s="3">
-        <v>520300</v>
+        <v>152300</v>
       </c>
       <c r="F100" s="3">
-        <v>-805600</v>
+        <v>502900</v>
       </c>
       <c r="G100" s="3">
-        <v>-48600</v>
+        <v>-778600</v>
       </c>
       <c r="H100" s="3">
-        <v>-417300</v>
+        <v>-47000</v>
       </c>
       <c r="I100" s="3">
-        <v>262600</v>
+        <v>-403300</v>
       </c>
       <c r="J100" s="3">
+        <v>253800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-875100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-362500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-469900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-189500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>119300</v>
+        <v>39500</v>
       </c>
       <c r="E101" s="3">
+        <v>115300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>47200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>118800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K101" s="3">
         <v>30100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-79600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>48800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>122900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>84900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>30100</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>443200</v>
+        <v>-142500</v>
       </c>
       <c r="E102" s="3">
-        <v>794200</v>
+        <v>428300</v>
       </c>
       <c r="F102" s="3">
-        <v>-709000</v>
+        <v>767600</v>
       </c>
       <c r="G102" s="3">
-        <v>75400</v>
+        <v>-685200</v>
       </c>
       <c r="H102" s="3">
-        <v>150900</v>
+        <v>72900</v>
       </c>
       <c r="I102" s="3">
-        <v>212700</v>
+        <v>145800</v>
       </c>
       <c r="J102" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-555400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-298000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>295200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>556500</v>
       </c>
     </row>
